--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H2">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I2">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J2">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>54.3018257750136</v>
+        <v>64.44050866666667</v>
       </c>
       <c r="N2">
-        <v>54.3018257750136</v>
+        <v>193.321526</v>
       </c>
       <c r="O2">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="P2">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="Q2">
-        <v>965.2692705007898</v>
+        <v>1225.712540426771</v>
       </c>
       <c r="R2">
-        <v>965.2692705007898</v>
+        <v>11031.41286384094</v>
       </c>
       <c r="S2">
-        <v>0.00158336236995982</v>
+        <v>0.00154567672840637</v>
       </c>
       <c r="T2">
-        <v>0.00158336236995982</v>
+        <v>0.00154567672840637</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H3">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I3">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J3">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.45105424940518</v>
+        <v>2.457277</v>
       </c>
       <c r="N3">
-        <v>2.45105424940518</v>
+        <v>7.371831</v>
       </c>
       <c r="O3">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552172</v>
       </c>
       <c r="P3">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552173</v>
       </c>
       <c r="Q3">
-        <v>43.56994103814932</v>
+        <v>46.73947019540299</v>
       </c>
       <c r="R3">
-        <v>43.56994103814932</v>
+        <v>420.655231758627</v>
       </c>
       <c r="S3">
-        <v>7.146918192618179E-05</v>
+        <v>5.894050113407781E-05</v>
       </c>
       <c r="T3">
-        <v>7.146918192618179E-05</v>
+        <v>5.894050113407782E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H4">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I4">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J4">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.5761310562531</v>
+        <v>19.791731</v>
       </c>
       <c r="N4">
-        <v>18.5761310562531</v>
+        <v>59.375193</v>
       </c>
       <c r="O4">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="P4">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="Q4">
-        <v>330.2093109666165</v>
+        <v>376.455328882309</v>
       </c>
       <c r="R4">
-        <v>330.2093109666165</v>
+        <v>3388.097959940781</v>
       </c>
       <c r="S4">
-        <v>0.0005416530010570489</v>
+        <v>0.0004747265137185849</v>
       </c>
       <c r="T4">
-        <v>0.0005416530010570489</v>
+        <v>0.0004747265137185849</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H5">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I5">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J5">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.1747794324574</v>
+        <v>24.85018033333334</v>
       </c>
       <c r="N5">
-        <v>24.1747794324574</v>
+        <v>74.55054100000001</v>
       </c>
       <c r="O5">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="P5">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="Q5">
-        <v>429.730886102601</v>
+        <v>472.6712792412997</v>
       </c>
       <c r="R5">
-        <v>429.730886102601</v>
+        <v>4254.041513171697</v>
       </c>
       <c r="S5">
-        <v>0.0007049014560583083</v>
+        <v>0.0005960590043852898</v>
       </c>
       <c r="T5">
-        <v>0.0007049014560583083</v>
+        <v>0.0005960590043852898</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H6">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I6">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J6">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.42267588931362</v>
+        <v>7.452280999999999</v>
       </c>
       <c r="N6">
-        <v>7.42267588931362</v>
+        <v>22.356843</v>
       </c>
       <c r="O6">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="P6">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="Q6">
-        <v>131.9454887304803</v>
+        <v>141.748637083759</v>
       </c>
       <c r="R6">
-        <v>131.9454887304803</v>
+        <v>1275.737733753831</v>
       </c>
       <c r="S6">
-        <v>0.0002164344480099442</v>
+        <v>0.0001787511854511992</v>
       </c>
       <c r="T6">
-        <v>0.0002164344480099442</v>
+        <v>0.0001787511854511992</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H7">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I7">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J7">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.78654529657293</v>
+        <v>2.960099333333333</v>
       </c>
       <c r="N7">
-        <v>2.78654529657293</v>
+        <v>8.880298</v>
       </c>
       <c r="O7">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632052</v>
       </c>
       <c r="P7">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632051</v>
       </c>
       <c r="Q7">
-        <v>49.53362998851554</v>
+        <v>56.30357284334067</v>
       </c>
       <c r="R7">
-        <v>49.53362998851554</v>
+        <v>506.732155590066</v>
       </c>
       <c r="S7">
-        <v>8.125161358409222E-05</v>
+        <v>7.100124980346796E-05</v>
       </c>
       <c r="T7">
-        <v>8.125161358409222E-05</v>
+        <v>7.100124980346796E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H8">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I8">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J8">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>54.3018257750136</v>
+        <v>64.44050866666667</v>
       </c>
       <c r="N8">
-        <v>54.3018257750136</v>
+        <v>193.321526</v>
       </c>
       <c r="O8">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="P8">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="Q8">
-        <v>164.3442404673988</v>
+        <v>208.9997943577522</v>
       </c>
       <c r="R8">
-        <v>164.3442404673988</v>
+        <v>1880.99814921977</v>
       </c>
       <c r="S8">
-        <v>0.0002695791672107251</v>
+        <v>0.0002635578145166203</v>
       </c>
       <c r="T8">
-        <v>0.0002695791672107251</v>
+        <v>0.0002635578145166203</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H9">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I9">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J9">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.45105424940518</v>
+        <v>2.457277</v>
       </c>
       <c r="N9">
-        <v>2.45105424940518</v>
+        <v>7.371831</v>
       </c>
       <c r="O9">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552172</v>
       </c>
       <c r="P9">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552173</v>
       </c>
       <c r="Q9">
-        <v>7.41810506762438</v>
+        <v>7.969682398638333</v>
       </c>
       <c r="R9">
-        <v>7.41810506762438</v>
+        <v>71.727141587745</v>
       </c>
       <c r="S9">
-        <v>1.216815740377915E-05</v>
+        <v>1.00501155124643E-05</v>
       </c>
       <c r="T9">
-        <v>1.216815740377915E-05</v>
+        <v>1.005011551246431E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H10">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I10">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J10">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.5761310562531</v>
+        <v>19.791731</v>
       </c>
       <c r="N10">
-        <v>18.5761310562531</v>
+        <v>59.375193</v>
       </c>
       <c r="O10">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="P10">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="Q10">
-        <v>56.22058016818146</v>
+        <v>64.19048816608166</v>
       </c>
       <c r="R10">
-        <v>56.22058016818146</v>
+        <v>577.714393494735</v>
       </c>
       <c r="S10">
-        <v>9.222043400327537E-05</v>
+        <v>8.094699243985139E-05</v>
       </c>
       <c r="T10">
-        <v>9.222043400327537E-05</v>
+        <v>8.094699243985139E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H11">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I11">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J11">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.1747794324574</v>
+        <v>24.85018033333334</v>
       </c>
       <c r="N11">
-        <v>24.1747794324574</v>
+        <v>74.55054100000001</v>
       </c>
       <c r="O11">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="P11">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="Q11">
-        <v>73.1648652248859</v>
+        <v>80.59654845813279</v>
       </c>
       <c r="R11">
-        <v>73.1648652248859</v>
+        <v>725.368936123195</v>
       </c>
       <c r="S11">
-        <v>0.0001200146922113909</v>
+        <v>0.0001016357467455109</v>
       </c>
       <c r="T11">
-        <v>0.0001200146922113909</v>
+        <v>0.0001016357467455109</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H12">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I12">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J12">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.42267588931362</v>
+        <v>7.452280999999999</v>
       </c>
       <c r="N12">
-        <v>7.42267588931362</v>
+        <v>22.356843</v>
       </c>
       <c r="O12">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="P12">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="Q12">
-        <v>22.46469642326893</v>
+        <v>24.16997054683166</v>
       </c>
       <c r="R12">
-        <v>22.46469642326893</v>
+        <v>217.529734921485</v>
       </c>
       <c r="S12">
-        <v>3.68495673240702E-05</v>
+        <v>3.047938221101772E-05</v>
       </c>
       <c r="T12">
-        <v>3.68495673240702E-05</v>
+        <v>3.047938221101772E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H13">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I13">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J13">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.78654529657293</v>
+        <v>2.960099333333333</v>
       </c>
       <c r="N13">
-        <v>2.78654529657293</v>
+        <v>8.880298</v>
       </c>
       <c r="O13">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632052</v>
       </c>
       <c r="P13">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632051</v>
       </c>
       <c r="Q13">
-        <v>8.433467268498413</v>
+        <v>9.600485234301111</v>
       </c>
       <c r="R13">
-        <v>8.433467268498413</v>
+        <v>86.40436710870999</v>
       </c>
       <c r="S13">
-        <v>1.38336888258138E-05</v>
+        <v>1.210662869036278E-05</v>
       </c>
       <c r="T13">
-        <v>1.38336888258138E-05</v>
+        <v>1.210662869036278E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H14">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I14">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J14">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.3018257750136</v>
+        <v>64.44050866666667</v>
       </c>
       <c r="N14">
-        <v>54.3018257750136</v>
+        <v>193.321526</v>
       </c>
       <c r="O14">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="P14">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="Q14">
-        <v>91267.76832480672</v>
+        <v>162234.2168966667</v>
       </c>
       <c r="R14">
-        <v>91267.76832480672</v>
+        <v>1460107.952070001</v>
       </c>
       <c r="S14">
-        <v>0.1497094690279913</v>
+        <v>0.2045843909870567</v>
       </c>
       <c r="T14">
-        <v>0.1497094690279913</v>
+        <v>0.2045843909870567</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H15">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I15">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J15">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.45105424940518</v>
+        <v>2.457277</v>
       </c>
       <c r="N15">
-        <v>2.45105424940518</v>
+        <v>7.371831</v>
       </c>
       <c r="O15">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552172</v>
       </c>
       <c r="P15">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552173</v>
       </c>
       <c r="Q15">
-        <v>4119.608285605365</v>
+        <v>6186.394521733558</v>
       </c>
       <c r="R15">
-        <v>4119.608285605365</v>
+        <v>55677.55069560202</v>
       </c>
       <c r="S15">
-        <v>0.006757526565637092</v>
+        <v>0.007801312077344688</v>
       </c>
       <c r="T15">
-        <v>0.006757526565637092</v>
+        <v>0.00780131207734469</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H16">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I16">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J16">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.5761310562531</v>
+        <v>19.791731</v>
       </c>
       <c r="N16">
-        <v>18.5761310562531</v>
+        <v>59.375193</v>
       </c>
       <c r="O16">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="P16">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="Q16">
-        <v>31221.82360198791</v>
+        <v>49827.29103557485</v>
       </c>
       <c r="R16">
-        <v>31221.82360198791</v>
+        <v>448445.6193201735</v>
       </c>
       <c r="S16">
-        <v>0.05121416595730173</v>
+        <v>0.06283437727283384</v>
       </c>
       <c r="T16">
-        <v>0.05121416595730173</v>
+        <v>0.06283437727283384</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H17">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I17">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J17">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.1747794324574</v>
+        <v>24.85018033333334</v>
       </c>
       <c r="N17">
-        <v>24.1747794324574</v>
+        <v>74.55054100000001</v>
       </c>
       <c r="O17">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="P17">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="Q17">
-        <v>40631.74924700351</v>
+        <v>62562.34827340359</v>
       </c>
       <c r="R17">
-        <v>40631.74924700351</v>
+        <v>563061.1344606322</v>
       </c>
       <c r="S17">
-        <v>0.06664957100516748</v>
+        <v>0.07889383734866963</v>
       </c>
       <c r="T17">
-        <v>0.06664957100516748</v>
+        <v>0.07889383734866963</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H18">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I18">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J18">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.42267588931362</v>
+        <v>7.452280999999999</v>
       </c>
       <c r="N18">
-        <v>7.42267588931362</v>
+        <v>22.356843</v>
       </c>
       <c r="O18">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="P18">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="Q18">
-        <v>12475.65903626994</v>
+        <v>18761.72297743359</v>
       </c>
       <c r="R18">
-        <v>12475.65903626994</v>
+        <v>168855.5067969023</v>
       </c>
       <c r="S18">
-        <v>0.02046422657610424</v>
+        <v>0.02365934722421052</v>
       </c>
       <c r="T18">
-        <v>0.02046422657610424</v>
+        <v>0.02365934722421052</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H19">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I19">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J19">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.78654529657293</v>
+        <v>2.960099333333333</v>
       </c>
       <c r="N19">
-        <v>2.78654529657293</v>
+        <v>8.880298</v>
       </c>
       <c r="O19">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632052</v>
       </c>
       <c r="P19">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632051</v>
       </c>
       <c r="Q19">
-        <v>4683.484706534885</v>
+        <v>7452.290604404994</v>
       </c>
       <c r="R19">
-        <v>4683.484706534885</v>
+        <v>67070.61543964494</v>
       </c>
       <c r="S19">
-        <v>0.007682471276395595</v>
+        <v>0.009397661997110337</v>
       </c>
       <c r="T19">
-        <v>0.007682471276395595</v>
+        <v>0.009397661997110337</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H20">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I20">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J20">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>54.3018257750136</v>
+        <v>64.44050866666667</v>
       </c>
       <c r="N20">
-        <v>54.3018257750136</v>
+        <v>193.321526</v>
       </c>
       <c r="O20">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="P20">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="Q20">
-        <v>193923.7053959465</v>
+        <v>235934.5586506579</v>
       </c>
       <c r="R20">
-        <v>193923.7053959465</v>
+        <v>2123411.027855921</v>
       </c>
       <c r="S20">
-        <v>0.3180993191752752</v>
+        <v>0.2975237216763524</v>
       </c>
       <c r="T20">
-        <v>0.3180993191752752</v>
+        <v>0.2975237216763524</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H21">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I21">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J21">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.45105424940518</v>
+        <v>2.457277</v>
       </c>
       <c r="N21">
-        <v>2.45105424940518</v>
+        <v>7.371831</v>
       </c>
       <c r="O21">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552172</v>
       </c>
       <c r="P21">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552173</v>
       </c>
       <c r="Q21">
-        <v>8753.251210014476</v>
+        <v>8996.772006818515</v>
       </c>
       <c r="R21">
-        <v>8753.251210014476</v>
+        <v>80970.94806136665</v>
       </c>
       <c r="S21">
-        <v>0.01435824075654219</v>
+        <v>0.01134532009999293</v>
       </c>
       <c r="T21">
-        <v>0.01435824075654219</v>
+        <v>0.01134532009999293</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H22">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I22">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J22">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.5761310562531</v>
+        <v>19.791731</v>
       </c>
       <c r="N22">
-        <v>18.5761310562531</v>
+        <v>59.375193</v>
       </c>
       <c r="O22">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="P22">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="Q22">
-        <v>66339.42993509628</v>
+        <v>72463.01146646563</v>
       </c>
       <c r="R22">
-        <v>66339.42993509628</v>
+        <v>652167.1031981906</v>
       </c>
       <c r="S22">
-        <v>0.1088187101919469</v>
+        <v>0.09137900347740742</v>
       </c>
       <c r="T22">
-        <v>0.1088187101919469</v>
+        <v>0.09137900347740742</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H23">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I23">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J23">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.1747794324574</v>
+        <v>24.85018033333334</v>
       </c>
       <c r="N23">
-        <v>24.1747794324574</v>
+        <v>74.55054100000001</v>
       </c>
       <c r="O23">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="P23">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="Q23">
-        <v>86333.42871555929</v>
+        <v>90983.39616873694</v>
       </c>
       <c r="R23">
-        <v>86333.42871555929</v>
+        <v>818850.5655186324</v>
       </c>
       <c r="S23">
-        <v>0.1416155123501503</v>
+        <v>0.1147340126588153</v>
       </c>
       <c r="T23">
-        <v>0.1416155123501503</v>
+        <v>0.1147340126588153</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H24">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I24">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J24">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.42267588931362</v>
+        <v>7.452280999999999</v>
       </c>
       <c r="N24">
-        <v>7.42267588931362</v>
+        <v>22.356843</v>
       </c>
       <c r="O24">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="P24">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="Q24">
-        <v>26508.00027190227</v>
+        <v>27284.86576309691</v>
       </c>
       <c r="R24">
-        <v>26508.00027190227</v>
+        <v>245563.7918678722</v>
       </c>
       <c r="S24">
-        <v>0.04348192925652695</v>
+        <v>0.03440740031347522</v>
       </c>
       <c r="T24">
-        <v>0.04348192925652695</v>
+        <v>0.03440740031347522</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H25">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I25">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J25">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.78654529657293</v>
+        <v>2.960099333333333</v>
       </c>
       <c r="N25">
-        <v>2.78654529657293</v>
+        <v>8.880298</v>
       </c>
       <c r="O25">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632052</v>
       </c>
       <c r="P25">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632051</v>
       </c>
       <c r="Q25">
-        <v>9951.363171544006</v>
+        <v>10837.7439008852</v>
       </c>
       <c r="R25">
-        <v>9951.363171544006</v>
+        <v>97539.69510796681</v>
       </c>
       <c r="S25">
-        <v>0.01632354251519073</v>
+        <v>0.01366686558513442</v>
       </c>
       <c r="T25">
-        <v>0.01632354251519073</v>
+        <v>0.01366686558513442</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H26">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I26">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J26">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>54.3018257750136</v>
+        <v>64.44050866666667</v>
       </c>
       <c r="N26">
-        <v>54.3018257750136</v>
+        <v>193.321526</v>
       </c>
       <c r="O26">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="P26">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="Q26">
-        <v>14575.19633148834</v>
+        <v>17677.33326850208</v>
       </c>
       <c r="R26">
-        <v>14575.19633148834</v>
+        <v>159095.9994165187</v>
       </c>
       <c r="S26">
-        <v>0.02390816543251406</v>
+        <v>0.02229188472192168</v>
       </c>
       <c r="T26">
-        <v>0.02390816543251406</v>
+        <v>0.02229188472192169</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H27">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I27">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J27">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.45105424940518</v>
+        <v>2.457277</v>
       </c>
       <c r="N27">
-        <v>2.45105424940518</v>
+        <v>7.371831</v>
       </c>
       <c r="O27">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552172</v>
       </c>
       <c r="P27">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552173</v>
       </c>
       <c r="Q27">
-        <v>657.8894244224026</v>
+        <v>674.0807197335846</v>
       </c>
       <c r="R27">
-        <v>657.8894244224026</v>
+        <v>6066.726477602262</v>
       </c>
       <c r="S27">
-        <v>0.001079157277724719</v>
+        <v>0.000850045053138514</v>
       </c>
       <c r="T27">
-        <v>0.001079157277724719</v>
+        <v>0.0008500450531385142</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H28">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I28">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J28">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>18.5761310562531</v>
+        <v>19.791731</v>
       </c>
       <c r="N28">
-        <v>18.5761310562531</v>
+        <v>59.375193</v>
       </c>
       <c r="O28">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="P28">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="Q28">
-        <v>4986.034140843379</v>
+        <v>5429.271619460688</v>
       </c>
       <c r="R28">
-        <v>4986.034140843379</v>
+        <v>48863.44457514619</v>
       </c>
       <c r="S28">
-        <v>0.008178752888145409</v>
+        <v>0.006846547226705893</v>
       </c>
       <c r="T28">
-        <v>0.008178752888145409</v>
+        <v>0.006846547226705894</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H29">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I29">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J29">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>24.1747794324574</v>
+        <v>24.85018033333334</v>
       </c>
       <c r="N29">
-        <v>24.1747794324574</v>
+        <v>74.55054100000001</v>
       </c>
       <c r="O29">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="P29">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="Q29">
-        <v>6488.771813278953</v>
+        <v>6816.906455642855</v>
       </c>
       <c r="R29">
-        <v>6488.771813278953</v>
+        <v>61352.15810078569</v>
       </c>
       <c r="S29">
-        <v>0.0106437420421263</v>
+        <v>0.008596414999997963</v>
       </c>
       <c r="T29">
-        <v>0.0106437420421263</v>
+        <v>0.008596414999997965</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H30">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I30">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J30">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.42267588931362</v>
+        <v>7.452280999999999</v>
       </c>
       <c r="N30">
-        <v>7.42267588931362</v>
+        <v>22.356843</v>
       </c>
       <c r="O30">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="P30">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="Q30">
-        <v>1992.326350867043</v>
+        <v>2044.311219344387</v>
       </c>
       <c r="R30">
-        <v>1992.326350867043</v>
+        <v>18398.80097409949</v>
       </c>
       <c r="S30">
-        <v>0.003268077280659335</v>
+        <v>0.002577965202396042</v>
       </c>
       <c r="T30">
-        <v>0.003268077280659335</v>
+        <v>0.002577965202396042</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H31">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I31">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J31">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.78654529657293</v>
+        <v>2.960099333333333</v>
       </c>
       <c r="N31">
-        <v>2.78654529657293</v>
+        <v>8.880298</v>
       </c>
       <c r="O31">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632052</v>
       </c>
       <c r="P31">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632051</v>
       </c>
       <c r="Q31">
-        <v>747.9388437584386</v>
+        <v>812.0150431132662</v>
       </c>
       <c r="R31">
-        <v>747.9388437584386</v>
+        <v>7308.135388019396</v>
       </c>
       <c r="S31">
-        <v>0.001226868249544467</v>
+        <v>0.001023986223408518</v>
       </c>
       <c r="T31">
-        <v>0.001226868249544467</v>
+        <v>0.001023986223408518</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H32">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I32">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J32">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>54.3018257750136</v>
+        <v>64.44050866666667</v>
       </c>
       <c r="N32">
-        <v>54.3018257750136</v>
+        <v>193.321526</v>
       </c>
       <c r="O32">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="P32">
-        <v>0.4949442635298718</v>
+        <v>0.5284084541711456</v>
       </c>
       <c r="Q32">
-        <v>837.8597132618798</v>
+        <v>1743.970283538593</v>
       </c>
       <c r="R32">
-        <v>837.8597132618798</v>
+        <v>15695.73255184733</v>
       </c>
       <c r="S32">
-        <v>0.001374368356920671</v>
+        <v>0.00219922224289171</v>
       </c>
       <c r="T32">
-        <v>0.001374368356920671</v>
+        <v>0.00219922224289171</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H33">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I33">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J33">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.45105424940518</v>
+        <v>2.457277</v>
       </c>
       <c r="N33">
-        <v>2.45105424940518</v>
+        <v>7.371831</v>
       </c>
       <c r="O33">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552172</v>
       </c>
       <c r="P33">
-        <v>0.02234059763238791</v>
+        <v>0.02014952966552173</v>
       </c>
       <c r="Q33">
-        <v>37.81897903589269</v>
+        <v>66.50192798120467</v>
       </c>
       <c r="R33">
-        <v>37.81897903589269</v>
+        <v>598.5173518308421</v>
       </c>
       <c r="S33">
-        <v>6.203569315395792E-05</v>
+        <v>8.386181839904698E-05</v>
       </c>
       <c r="T33">
-        <v>6.203569315395792E-05</v>
+        <v>8.386181839904699E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H34">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I34">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J34">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>18.5761310562531</v>
+        <v>19.791731</v>
       </c>
       <c r="N34">
-        <v>18.5761310562531</v>
+        <v>59.375193</v>
       </c>
       <c r="O34">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="P34">
-        <v>0.1693156606366293</v>
+        <v>0.162291052623097</v>
       </c>
       <c r="Q34">
-        <v>286.6237298317329</v>
+        <v>535.6287750975474</v>
       </c>
       <c r="R34">
-        <v>286.6237298317329</v>
+        <v>4820.658975877926</v>
       </c>
       <c r="S34">
-        <v>0.0004701581641748994</v>
+        <v>0.0006754511399914575</v>
       </c>
       <c r="T34">
-        <v>0.0004701581641748994</v>
+        <v>0.0006754511399914575</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H35">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I35">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J35">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>24.1747794324574</v>
+        <v>24.85018033333334</v>
       </c>
       <c r="N35">
-        <v>24.1747794324574</v>
+        <v>74.55054100000001</v>
       </c>
       <c r="O35">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="P35">
-        <v>0.2203456003812742</v>
+        <v>0.2037700453876647</v>
       </c>
       <c r="Q35">
-        <v>373.0090742688822</v>
+        <v>672.5269079746737</v>
       </c>
       <c r="R35">
-        <v>373.0090742688822</v>
+        <v>6052.742171772064</v>
       </c>
       <c r="S35">
-        <v>0.0006118588355604475</v>
+        <v>0.0008480856290510061</v>
       </c>
       <c r="T35">
-        <v>0.0006118588355604475</v>
+        <v>0.0008480856290510061</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H36">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I36">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J36">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.42267588931362</v>
+        <v>7.452280999999999</v>
       </c>
       <c r="N36">
-        <v>7.42267588931362</v>
+        <v>22.356843</v>
       </c>
       <c r="O36">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="P36">
-        <v>0.06765538357179383</v>
+        <v>0.06110827435625039</v>
       </c>
       <c r="Q36">
-        <v>114.5295025258222</v>
+        <v>201.6830232642473</v>
       </c>
       <c r="R36">
-        <v>114.5295025258222</v>
+        <v>1815.147209378226</v>
       </c>
       <c r="S36">
-        <v>0.0001878664431692967</v>
+        <v>0.0002543310485064029</v>
       </c>
       <c r="T36">
-        <v>0.0001878664431692967</v>
+        <v>0.0002543310485064029</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H37">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I37">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J37">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.78654529657293</v>
+        <v>2.960099333333333</v>
       </c>
       <c r="N37">
-        <v>2.78654529657293</v>
+        <v>8.880298</v>
       </c>
       <c r="O37">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632052</v>
       </c>
       <c r="P37">
-        <v>0.02539849424804302</v>
+        <v>0.02427264379632051</v>
       </c>
       <c r="Q37">
-        <v>42.99549803078883</v>
+        <v>80.10993985722622</v>
       </c>
       <c r="R37">
-        <v>42.99549803078883</v>
+        <v>720.9894587150361</v>
       </c>
       <c r="S37">
-        <v>7.052690450231926E-05</v>
+        <v>0.0001010221121734099</v>
       </c>
       <c r="T37">
-        <v>7.052690450231926E-05</v>
+        <v>0.0001010221121734099</v>
       </c>
     </row>
   </sheetData>
